--- a/Resultados Evaluación/Solicitudes de Cambio/BrailleX-Dev-Sentinels - CR2.xlsx
+++ b/Resultados Evaluación/Solicitudes de Cambio/BrailleX-Dev-Sentinels - CR2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jonathan\6to semestre\Calidad de SW\Proyecto\BrailleTech\Resultados Evaluación\Solicitudes de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047D33C2-2D33-4796-A5F9-106076769910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E395EE0-1BB5-4C08-B5ED-54BF215C382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="720" windowWidth="11712" windowHeight="12240" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="1920" yWindow="720" windowWidth="11712" windowHeight="12240" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="CR Formato" sheetId="1" r:id="rId1"/>
+    <sheet name="CR" sheetId="1" r:id="rId1"/>
     <sheet name="Documento de Análisis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F84A08-0160-4953-9528-DB07A5F993CD}">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
